--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A92899-5AAF-4EBC-A314-6817159B569A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D90EE-2EEB-4535-9A02-564CEB2FDF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>fecha</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Proveedor</t>
   </si>
   <si>
-    <t>Tipo de ciente</t>
-  </si>
-  <si>
     <t>Nombre del cliente</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>Persona que procesa la devolución</t>
   </si>
   <si>
-    <t>Precion / costo compra</t>
-  </si>
-  <si>
     <t>Tipo de cliente</t>
   </si>
   <si>
@@ -258,6 +252,24 @@
   </si>
   <si>
     <t>monto de compras =  ultimo costo de compra?</t>
+  </si>
+  <si>
+    <t>Precio / costo compra</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>el ultimo precio compra</t>
+  </si>
+  <si>
+    <t>Es Utilidad ? Que pasa con los rangos de precios</t>
+  </si>
+  <si>
+    <t>como obtener el numero de clientes  ? Pòr que puede aparecer el mismo clientes en diferentes tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como obtener ventas ya que existe un rango de precios y afecta directamente el precio con que se vende ese producto </t>
   </si>
 </sst>
 </file>
@@ -770,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45CB0-F4D7-E44C-BA50-A59C65C29D74}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -785,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -806,14 +818,14 @@
         <v>3</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -893,7 +905,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -927,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +955,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -961,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>4</v>
@@ -993,7 +1005,7 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1010,7 +1022,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1018,17 +1030,17 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1036,7 +1048,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,7 +1073,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:L7"/>
+      <selection activeCell="L3" sqref="B3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1071,22 +1083,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1101,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1126,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1141,29 +1153,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1205,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
-  <dimension ref="B1:L46"/>
+  <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1220,161 +1232,167 @@
     <col min="12" max="12" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L1" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L2" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L5" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>360</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2">
         <v>1000</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <f>(D9*D6)/D8</f>
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f>(H9*H6)/H8</f>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="9">
         <f>30/D11</f>
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <f>30/H11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -1382,7 +1400,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1390,7 +1408,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <f>D18-D19</f>
@@ -1399,7 +1417,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -1407,7 +1425,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <f>D20-D21</f>
@@ -1416,7 +1434,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1425,7 +1443,7 @@
     <row r="24" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="11">
         <f>(D22*D23)/(D18*D23)</f>
@@ -1437,17 +1455,17 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2">
         <v>8</v>
@@ -1455,83 +1473,92 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4">
         <f>D19*D30</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4">
         <f>D19*D23</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4">
         <f>D32-D33</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="11">
         <f>D34/D32</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L36" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38" s="5">
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
-        <v>47</v>
       </c>
       <c r="D42">
         <v>1500</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="13">
         <f>D32/D42</f>
         <v>5.333333333333333</v>
       </c>
       <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="F45" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F46" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="F46" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D90EE-2EEB-4535-9A02-564CEB2FDF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523ABF9-7502-4E0E-8A6A-0253FE7A434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="600" yWindow="945" windowWidth="13305" windowHeight="11175" firstSheet="2" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>fecha</t>
   </si>
@@ -233,9 +233,6 @@
     <t xml:space="preserve">costo de Inventario promedio </t>
   </si>
   <si>
-    <t xml:space="preserve">dias del perido </t>
-  </si>
-  <si>
     <t>costo de ventas</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Inventario real derivado de conteo fisico</t>
   </si>
   <si>
-    <t>monto de compras =  ultimo costo de compra?</t>
-  </si>
-  <si>
     <t>Precio / costo compra</t>
   </si>
   <si>
@@ -270,6 +264,75 @@
   </si>
   <si>
     <t xml:space="preserve">como obtener ventas ya que existe un rango de precios y afecta directamente el precio con que se vende ese producto </t>
+  </si>
+  <si>
+    <t>se puede segmentar Global / linea / Producto</t>
+  </si>
+  <si>
+    <t>dias del perido /30</t>
+  </si>
+  <si>
+    <t>monto de compras = sumatoria de los costos de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inventario fisico / Por producto</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Linea</t>
+  </si>
+  <si>
+    <t>Comras</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>CantidadMerma</t>
+  </si>
+  <si>
+    <t>%Merma</t>
+  </si>
+  <si>
+    <t>Puede ser global / linea / producto</t>
+  </si>
+  <si>
+    <t>Global un solo renglon = todas las ventas</t>
+  </si>
+  <si>
+    <t>Linea = renglon por linea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto = actualemente esta </t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>numero clientes atendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio de venta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop-size expresado en dinero </t>
+  </si>
+  <si>
+    <t>* en el caso de seleccionar una venta tipo ruta debemos agregar un input para capturar numero de clientes atendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otro Reporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consideraciones </t>
+  </si>
+  <si>
+    <t>Producto = Agrupado ennuevo reporte</t>
   </si>
 </sst>
 </file>
@@ -318,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +491,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,6 +533,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -782,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45CB0-F4D7-E44C-BA50-A59C65C29D74}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
@@ -905,7 +982,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,7 +1032,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1150,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L3" sqref="B3:L11"/>
+      <selection activeCell="A2" sqref="A2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1203,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G6"/>
+      <selection activeCell="A3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,29 +1294,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
-  <dimension ref="B1:M46"/>
+  <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="5.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="25.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L2" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
@@ -1252,6 +1331,9 @@
       <c r="L3" s="19" t="s">
         <v>64</v>
       </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
@@ -1261,18 +1343,18 @@
         <v>26</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
@@ -1310,7 +1392,7 @@
         <v>1000</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
@@ -1381,16 +1463,19 @@
       <c r="C15" t="s">
         <v>63</v>
       </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
       <c r="L15" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>32</v>
       </c>
@@ -1398,15 +1483,39 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -1415,15 +1524,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -1440,8 +1549,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="10" t="s">
         <v>38</v>
       </c>
@@ -1450,28 +1559,50 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -1479,8 +1610,15 @@
         <f>D19*D30</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1488,11 +1626,14 @@
         <f>D19*D23</f>
         <v>5000</v>
       </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
       <c r="L33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -1500,9 +1641,13 @@
         <f>D32-D33</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E34">
+        <f>E32-E33</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="12" t="s">
         <v>39</v>
       </c>
@@ -1510,24 +1655,52 @@
         <f>D34/D32</f>
         <v>0.375</v>
       </c>
+      <c r="E36" s="24">
+        <f>E34/E32</f>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="L36" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="5">
         <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I38" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" t="s">
+        <v>93</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>46</v>
       </c>
@@ -1535,11 +1708,11 @@
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="12" t="s">
         <v>47</v>
       </c>
@@ -1551,17 +1724,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F46" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="F32:G32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523ABF9-7502-4E0E-8A6A-0253FE7A434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8EC704-8A6F-4EBF-867A-D70331CE44ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="945" windowWidth="13305" windowHeight="11175" firstSheet="2" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -534,13 +534,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J14"/>
+      <selection activeCell="A2" sqref="A2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1613,10 +1613,10 @@
       <c r="E32">
         <v>30</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
@@ -1655,7 +1655,7 @@
         <f>D34/D32</f>
         <v>0.375</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <f>E34/E32</f>
         <v>0.46666666666666667</v>
       </c>
@@ -1670,13 +1670,13 @@
       <c r="C38" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="J39" t="s">

--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8EC704-8A6F-4EBF-867A-D70331CE44ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8C1F6-93B8-496A-90BA-47321BF4A19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750" firstSheet="3" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>ejemplo para mes:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dias promedio de inventario: (costo del inventario promedio * dias del periodo)/costo de ventas </t>
-  </si>
-  <si>
     <t>Rotación de inventarios: dias del periodo / dias promedio de inventario</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>Producto = Agrupado ennuevo reporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias promedio de inventario: (costo del inventario promedio * dias del periodo)/costo de lo vendido </t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1016,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +1056,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>4</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1163,19 +1163,19 @@
         <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1230,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1313,12 +1313,12 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L2" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
@@ -1326,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
@@ -1340,21 +1340,21 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L5" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
@@ -1365,16 +1365,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>360</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="19"/>
     </row>
@@ -1392,7 +1392,7 @@
         <v>1000</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
@@ -1426,14 +1426,14 @@
     <row r="10" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
         <f>(D9*D6)/D8</f>
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <f>(H9*H6)/H8</f>
@@ -1461,23 +1461,23 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1494,30 +1494,30 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
         <v>83</v>
       </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>84</v>
-      </c>
-      <c r="O19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <f>D18-D19</f>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <f>D20-D21</f>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1552,7 +1552,7 @@
     <row r="24" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="11">
         <f>(D22*D23)/(D18*D23)</f>
@@ -1564,47 +1564,47 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="4">
         <f>D19*D30</f>
@@ -1614,13 +1614,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="4">
         <f>D19*D23</f>
@@ -1630,12 +1630,12 @@
         <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
         <f>D32-D33</f>
@@ -1649,7 +1649,7 @@
     <row r="35" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="11">
         <f>D34/D32</f>
@@ -1660,7 +1660,7 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
@@ -1668,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -1680,58 +1680,58 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
         <v>90</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>91</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>92</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>93</v>
-      </c>
-      <c r="N39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="13">
         <f>D32/D42</f>
         <v>5.333333333333333</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523ABF9-7502-4E0E-8A6A-0253FE7A434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8C1F6-93B8-496A-90BA-47321BF4A19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="945" windowWidth="13305" windowHeight="11175" firstSheet="2" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750" firstSheet="3" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>ejemplo para mes:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dias promedio de inventario: (costo del inventario promedio * dias del periodo)/costo de ventas </t>
-  </si>
-  <si>
     <t>Rotación de inventarios: dias del periodo / dias promedio de inventario</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>Producto = Agrupado ennuevo reporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias promedio de inventario: (costo del inventario promedio * dias del periodo)/costo de lo vendido </t>
   </si>
 </sst>
 </file>
@@ -534,13 +534,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J14"/>
+      <selection activeCell="A2" sqref="A2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1016,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +1056,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>4</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1163,19 +1163,19 @@
         <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1230,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1313,12 +1313,12 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L2" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
@@ -1326,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
@@ -1340,21 +1340,21 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L5" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
@@ -1365,16 +1365,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>360</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="19"/>
     </row>
@@ -1392,7 +1392,7 @@
         <v>1000</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
@@ -1426,14 +1426,14 @@
     <row r="10" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
         <f>(D9*D6)/D8</f>
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <f>(H9*H6)/H8</f>
@@ -1461,23 +1461,23 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1494,30 +1494,30 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
         <v>83</v>
       </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>84</v>
-      </c>
-      <c r="O19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <f>D18-D19</f>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <f>D20-D21</f>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1552,7 +1552,7 @@
     <row r="24" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="11">
         <f>(D22*D23)/(D18*D23)</f>
@@ -1564,47 +1564,47 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="4">
         <f>D19*D30</f>
@@ -1613,14 +1613,14 @@
       <c r="E32">
         <v>30</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="23"/>
+      <c r="F32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="4">
         <f>D19*D23</f>
@@ -1630,12 +1630,12 @@
         <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
         <f>D32-D33</f>
@@ -1649,18 +1649,18 @@
     <row r="35" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="11">
         <f>D34/D32</f>
         <v>0.375</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <f>E34/E32</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
@@ -1668,70 +1668,70 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
         <v>90</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>91</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>92</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>93</v>
-      </c>
-      <c r="N39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="13">
         <f>D32/D42</f>
         <v>5.333333333333333</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8C1F6-93B8-496A-90BA-47321BF4A19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C757D8-799B-4ED5-8C60-1A2EA0889D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750" firstSheet="3" activeTab="5" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="6" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Pendientedevolucion de clientes" sheetId="6" r:id="rId4"/>
     <sheet name="inventario" sheetId="3" r:id="rId5"/>
     <sheet name="indicadores" sheetId="4" r:id="rId6"/>
+    <sheet name="Drop Size" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>fecha</t>
   </si>
@@ -333,6 +334,36 @@
   </si>
   <si>
     <t xml:space="preserve">Dias promedio de inventario: (costo del inventario promedio * dias del periodo)/costo de lo vendido </t>
+  </si>
+  <si>
+    <t>idVenta</t>
+  </si>
+  <si>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>fechaAlta</t>
+  </si>
+  <si>
+    <t>montoTotal</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>idStatusVenta</t>
+  </si>
+  <si>
+    <t>idFactFormaPago</t>
+  </si>
+  <si>
+    <t>idFactUsoCFDI</t>
+  </si>
+  <si>
+    <t>idEstacion</t>
+  </si>
+  <si>
+    <t>DropSize</t>
   </si>
 </sst>
 </file>
@@ -491,7 +522,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,6 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1296,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1742,4 +1774,582 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431023B-C2C3-4292-B601-CBDEC82952A5}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>103</v>
+      </c>
+      <c r="D2" s="25">
+        <v>43978.356195023145</v>
+      </c>
+      <c r="E2">
+        <v>836</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25">
+        <v>43981.648340162035</v>
+      </c>
+      <c r="E3">
+        <v>450</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25">
+        <v>43982.921135682867</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25">
+        <v>43983.911784456017</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6" s="25">
+        <v>43985.929278356482</v>
+      </c>
+      <c r="E6">
+        <v>2245</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="25">
+        <v>43985.952493634257</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>43987.720669212962</v>
+      </c>
+      <c r="E8">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25">
+        <v>43992.646449803244</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10" s="25">
+        <v>43996.538157523151</v>
+      </c>
+      <c r="E10">
+        <v>991</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="25">
+        <v>43997.837290891206</v>
+      </c>
+      <c r="E11">
+        <v>320</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25">
+        <v>43998.751317048613</v>
+      </c>
+      <c r="E12">
+        <v>320</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" s="25">
+        <v>43999.782315856479</v>
+      </c>
+      <c r="E13">
+        <v>480</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="25">
+        <v>44002.679829247689</v>
+      </c>
+      <c r="E14">
+        <v>192</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25">
+        <v>44002.682684490741</v>
+      </c>
+      <c r="E15">
+        <v>168</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25">
+        <v>44002.683959027781</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25">
+        <v>44002.797062650461</v>
+      </c>
+      <c r="E17">
+        <v>520</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>7759</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J2:J17)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <f xml:space="preserve"> E18/J18</f>
+        <v>484.9375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/indicadores lluvia.xlsx
+++ b/Analisis/indicadores lluvia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C757D8-799B-4ED5-8C60-1A2EA0889D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E8082-33C1-4F12-8276-8AEB60734996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="6" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{56216E52-3018-4F4A-897D-AA49E08DEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="compras" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>fecha</t>
   </si>
@@ -364,6 +364,24 @@
   </si>
   <si>
     <t>DropSize</t>
+  </si>
+  <si>
+    <t>cantidad Pedida</t>
+  </si>
+  <si>
+    <t>Cantidad Recibida</t>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Devoluciones</t>
+  </si>
+  <si>
+    <t>Rango Fechas</t>
+  </si>
+  <si>
+    <t>cepillos</t>
   </si>
 </sst>
 </file>
@@ -522,7 +540,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,13 +584,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -892,7 +911,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,47 +1030,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2ED5C-FBFE-FF44-99EB-5EA2D57CD381}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>44002</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826896E-82E3-A247-A364-739C7C42C4FD}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -1645,10 +1740,10 @@
       <c r="E32">
         <v>30</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
@@ -1702,13 +1797,13 @@
       <c r="C38" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
@@ -1780,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431023B-C2C3-4292-B601-CBDEC82952A5}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1828,7 +1923,7 @@
       <c r="C2">
         <v>103</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>43978.356195023145</v>
       </c>
       <c r="E2">
@@ -1860,7 +1955,7 @@
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>43981.648340162035</v>
       </c>
       <c r="E3">
@@ -1892,7 +1987,7 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>43982.921135682867</v>
       </c>
       <c r="E4">
@@ -1924,7 +2019,7 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>43983.911784456017</v>
       </c>
       <c r="E5">
@@ -1956,7 +2051,7 @@
       <c r="C6">
         <v>87</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>43985.929278356482</v>
       </c>
       <c r="E6">
@@ -1988,7 +2083,7 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>43985.952493634257</v>
       </c>
       <c r="E7">
@@ -2020,7 +2115,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>43987.720669212962</v>
       </c>
       <c r="E8">
@@ -2052,7 +2147,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>43992.646449803244</v>
       </c>
       <c r="E9">
@@ -2084,7 +2179,7 @@
       <c r="C10">
         <v>48</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>43996.538157523151</v>
       </c>
       <c r="E10">
@@ -2116,7 +2211,7 @@
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>43997.837290891206</v>
       </c>
       <c r="E11">
@@ -2148,7 +2243,7 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>43998.751317048613</v>
       </c>
       <c r="E12">
@@ -2180,7 +2275,7 @@
       <c r="C13">
         <v>24</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>43999.782315856479</v>
       </c>
       <c r="E13">
@@ -2212,7 +2307,7 @@
       <c r="C14">
         <v>16</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>44002.679829247689</v>
       </c>
       <c r="E14">
@@ -2244,7 +2339,7 @@
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>44002.682684490741</v>
       </c>
       <c r="E15">
@@ -2276,7 +2371,7 @@
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>44002.683959027781</v>
       </c>
       <c r="E16">
@@ -2308,7 +2403,7 @@
       <c r="C17">
         <v>13</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>44002.797062650461</v>
       </c>
       <c r="E17">
